--- a/Results/Comparisions.xlsx
+++ b/Results/Comparisions.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099AA259-4BBB-4209-9F38-9AEBA78652C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,711 +644,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Testing Accuracy CNN(%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$D$2:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>65.263999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76.86</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>75.837000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75.147000000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>77.864999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>77.171999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AE72-4896-BDB6-44BD38F4A705}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Testing Accuracy LSTM (%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$2:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>62.155999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76.108000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77.984999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75.426000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75.471000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>75.596999999999994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AE72-4896-BDB6-44BD38F4A705}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Testing Accuracy CNN(%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>91.102000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>92.054000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.557000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>91.174000000000007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>91.215999999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>91.617000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AE72-4896-BDB6-44BD38F4A705}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Testing Accuracy LSTM (%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>93.998999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>93.525999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>93.007999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>93.861000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>94.325999999999993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>94.551000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AE72-4896-BDB6-44BD38F4A705}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="257481216"/>
-        <c:axId val="257481544"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="257481216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2400" b="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Sample Window</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2400" b="1" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> Lenghts (Sec)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="2400" b="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.41167574877554847"/>
-              <c:y val="0.93538737433093211"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="257481544"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="257481544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2400" b="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Accuracy Percentages</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.14257108097033064"/>
-              <c:y val="0.23945716950532112"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="257481216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="2000" baseline="0"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1903,522 +1200,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2436,7 +1217,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2446,38 +1233,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>122029</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>49123</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2748,26 +1503,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2793,7 +1548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1000</v>
       </c>
@@ -2819,7 +1574,7 @@
         <v>0.79298999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1000</v>
       </c>
@@ -2845,7 +1600,7 @@
         <v>0.79059999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1000</v>
       </c>
@@ -2871,7 +1626,7 @@
         <v>0.78115000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -2897,7 +1652,7 @@
         <v>0.80179999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1000</v>
       </c>
@@ -2923,7 +1678,7 @@
         <v>0.80052000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1000</v>
       </c>
@@ -2949,7 +1704,7 @@
         <v>0.81808999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>200</v>
       </c>
@@ -2976,7 +1731,7 @@
         <v>0.23291999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>200</v>
       </c>
@@ -3003,7 +1758,7 @@
         <v>0.39783000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>200</v>
       </c>
@@ -3030,7 +1785,7 @@
         <v>0.42896000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>200</v>
       </c>
@@ -3057,7 +1812,7 @@
         <v>0.30237000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -3084,7 +1839,7 @@
         <v>0.31092999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>200</v>
       </c>
@@ -3119,28 +1874,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3166,7 +1921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>200</v>
       </c>
@@ -3192,7 +1947,7 @@
         <v>0.23291999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>200</v>
       </c>
@@ -3218,7 +1973,7 @@
         <v>0.39783000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>200</v>
       </c>
@@ -3244,7 +1999,7 @@
         <v>0.42896000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>200</v>
       </c>
@@ -3270,7 +2025,7 @@
         <v>0.30237000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>200</v>
       </c>
@@ -3296,7 +2051,7 @@
         <v>0.31092999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>200</v>
       </c>
